--- a/Running projects/NASTP/015- Invoice for Operation and maintenance charges May 24 (rec on 27 june 24).xlsx
+++ b/Running projects/NASTP/015- Invoice for Operation and maintenance charges May 24 (rec on 27 june 24).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C66E42A-7355-42B8-A23E-2547DC258C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F385CC-8109-4220-9E39-55C8682C14AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
 For the month of May 24</t>
   </si>
   <si>
-    <t>04 June 2024</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Less Absent Amount:
 </t>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Transfer amt</t>
+  </si>
+  <si>
+    <t>26 June 2024</t>
   </si>
 </sst>
 </file>
@@ -551,6 +551,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -590,8 +592,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1132,20 +1132,20 @@
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>5</v>
       </c>
@@ -1154,8 +1154,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
@@ -1181,12 +1181,12 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:8" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
@@ -1195,12 +1195,12 @@
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="10"/>
@@ -1209,12 +1209,12 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1226,10 +1226,10 @@
       <c r="A22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42">
@@ -1260,11 +1260,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="34">
         <f>SUM(D23:D23)-D24</f>
         <v>1944196</v>
@@ -1276,33 +1276,33 @@
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="32">
         <f>D25*13%</f>
         <v>252745.48</v>
       </c>
-      <c r="H26" s="53"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="33">
         <f>D26+D25</f>
         <v>2196941.48</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
@@ -1315,7 +1315,7 @@
       <c r="G28" s="30">
         <v>500000</v>
       </c>
-      <c r="H28" s="53"/>
+      <c r="H28" s="55"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -1328,14 +1328,14 @@
         <f>G25-G28</f>
         <v>1460000</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="20"/>
-      <c r="H30" s="53"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -1351,12 +1351,12 @@
         <f>3920000/2</f>
         <v>1960000</v>
       </c>
-      <c r="H31" s="53"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
@@ -1366,7 +1366,7 @@
       <c r="G32" s="30">
         <v>500000</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="55"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
@@ -1374,7 +1374,7 @@
         <f>G31-G32</f>
         <v>1460000</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
@@ -1418,9 +1418,9 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="58">
+        <v>29</v>
+      </c>
+      <c r="D38" s="45">
         <f>D27*11%</f>
         <v>241663.56279999999</v>
       </c>
@@ -1429,9 +1429,9 @@
       <c r="A39" s="9"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="59">
+        <v>30</v>
+      </c>
+      <c r="D39" s="46">
         <f>D26*20%</f>
         <v>50549.096000000005</v>
       </c>
@@ -1440,9 +1440,9 @@
       <c r="A40" s="9"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="59">
+        <v>31</v>
+      </c>
+      <c r="D40" s="46">
         <f>D27-D38-D39</f>
         <v>1904728.8212000001</v>
       </c>
